--- a/spec/files/0_1_09_small_list_validation_errors.xlsx
+++ b/spec/files/0_1_09_small_list_validation_errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="12820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4521,9 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5826,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
